--- a/Technology/Software/ZoomInfo.xlsx
+++ b/Technology/Software/ZoomInfo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3BEA6F-79D6-5947-9988-CD173F6B55A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08516BA-B303-8440-960B-C4EE2A2025D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2226,13 +2226,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>56.28</v>
-    <v>20.72</v>
-    <v>1.863</v>
-    <v>0.53</v>
-    <v>2.4697E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>51.86</v>
+    <v>20.329999999999998</v>
+    <v>1.865</v>
+    <v>-0.43</v>
+    <v>-1.7381000000000001E-2</v>
+    <v>0.28000000000000003</v>
+    <v>1.1517999999999999E-2</v>
     <v>USD</v>
     <v>ZoomInfo Technologies Inc., through its subsidiaries, provides a go-to-market intelligence and engagement platform for sales and marketing teams. The Company’s cloud-based platform delivers intelligence and analytics to provide sales, marketing, operations, and recruiting professionals' information and insights on the organizations and professionals they target. It delivers an artificial intelligence (AI) and machine learning (ML) powered engine that gathers data from millions of sources and standardizes, matches to entities, verifies, cleans, and applies the processed data to companies and people at scale. It aggregates and extracts distinct types of data, such as revenue, locations, technologies, keywords, contact information, including email addresses, titles, and phone numbers, and many others, from various public and proprietary sources. The Company serves various industry verticals, including software, business services, manufacturing, telecommunications, real estate and others.</v>
     <v>3540</v>
@@ -2240,25 +2240,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>805 Broadway St, Suite 900, VANCOUVER, WA, 98660 US</v>
-    <v>22.09</v>
+    <v>24.65</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.945937001561</v>
+    <v>45070.999010520311</v>
     <v>0</v>
-    <v>21.434999999999999</v>
-    <v>8886059000</v>
+    <v>24.18</v>
+    <v>9780610697</v>
     <v>ZoomInfo Technologies Inc</v>
     <v>ZoomInfo Technologies Inc</v>
-    <v>21.5</v>
-    <v>137.01079999999999</v>
-    <v>21.46</v>
-    <v>21.99</v>
-    <v>21.99</v>
-    <v>404095400</v>
+    <v>24.44</v>
+    <v>96.71</v>
+    <v>24.74</v>
+    <v>24.31</v>
+    <v>24.59</v>
+    <v>402328700</v>
     <v>ZI</v>
     <v>ZoomInfo Technologies Inc (XNAS:ZI)</v>
-    <v>3850165</v>
-    <v>3748728</v>
+    <v>3388349</v>
+    <v>4881585</v>
     <v>2019</v>
   </rv>
   <rv s="2">
@@ -2423,9 +2423,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2846,10 +2846,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3409,15 +3409,15 @@
       </c>
       <c r="M16" s="25">
         <f>N101/F3</f>
-        <v>8.0929499089253181</v>
+        <v>8.9076600154826959</v>
       </c>
       <c r="N16" s="25">
         <f>N101/F28</f>
-        <v>140.60219936708862</v>
+        <v>154.75649837025315</v>
       </c>
       <c r="O16" s="26">
         <f>N101/F106</f>
-        <v>22.896312805977839</v>
+        <v>25.201264357124451</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="N95" s="57" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
-        <v>1.863</v>
+        <v>1.865</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="N97" s="52">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>0.12115215000000001</v>
+        <v>0.12123825000000001</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="N100" s="50">
         <f>N99/N103</f>
-        <v>0.12881424327293864</v>
+        <v>0.1184279357498194</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="N101" s="41" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>8886059000</v>
+        <v>9780610697</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="N102" s="50">
         <f>N101/N103</f>
-        <v>0.87118575672706133</v>
+        <v>0.88157206425018064</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5313,7 +5313,7 @@
       </c>
       <c r="N103" s="54">
         <f>N99+N101</f>
-        <v>10199959000</v>
+        <v>11094510697</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="N105" s="30">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>0.10706162109892849</v>
+        <v>0.10827364544937855</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5438,7 +5438,7 @@
       <c r="J107" s="31"/>
       <c r="K107" s="34">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>12286940168.602432</v>
+        <v>12108107230.564167</v>
       </c>
       <c r="L107" s="35" t="s">
         <v>148</v>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="K108" s="34">
         <f>K107+K106</f>
-        <v>13270634050.144928</v>
+        <v>13091801112.106663</v>
       </c>
       <c r="L108" s="35" t="s">
         <v>143</v>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="N108" s="39">
         <f>N105</f>
-        <v>0.10706162109892849</v>
+        <v>0.10827364544937855</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="H110" s="41">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>9905674588.6494961</v>
+        <v>9749695369.801506</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="H113" s="41">
         <f>H110+H111-H112</f>
-        <v>9137474588.6494961</v>
+        <v>8981495369.801506</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="H115" s="59">
         <f>H113/H114</f>
-        <v>18.124695946333031</v>
+        <v>17.815302372852877</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="H116" s="58" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>21.99</v>
+        <v>24.31</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="H117" s="45">
         <f>H115/H116-1</f>
-        <v>-0.17577553677430502</v>
+        <v>-0.26716156425944559</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/ZoomInfo.xlsx
+++ b/Technology/Software/ZoomInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08516BA-B303-8440-960B-C4EE2A2025D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D791ED3-F9FA-FB48-971E-3CA172E84106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2228,11 +2228,11 @@
     <v>Powered by Refinitiv</v>
     <v>51.86</v>
     <v>20.329999999999998</v>
-    <v>1.865</v>
-    <v>-0.43</v>
-    <v>-1.7381000000000001E-2</v>
-    <v>0.28000000000000003</v>
-    <v>1.1517999999999999E-2</v>
+    <v>1.887</v>
+    <v>0.41</v>
+    <v>1.7772E-2</v>
+    <v>0.16</v>
+    <v>6.8139999999999997E-3</v>
     <v>USD</v>
     <v>ZoomInfo Technologies Inc., through its subsidiaries, provides a go-to-market intelligence and engagement platform for sales and marketing teams. The Company’s cloud-based platform delivers intelligence and analytics to provide sales, marketing, operations, and recruiting professionals' information and insights on the organizations and professionals they target. It delivers an artificial intelligence (AI) and machine learning (ML) powered engine that gathers data from millions of sources and standardizes, matches to entities, verifies, cleans, and applies the processed data to companies and people at scale. It aggregates and extracts distinct types of data, such as revenue, locations, technologies, keywords, contact information, including email addresses, titles, and phone numbers, and many others, from various public and proprietary sources. The Company serves various industry verticals, including software, business services, manufacturing, telecommunications, real estate and others.</v>
     <v>3540</v>
@@ -2240,25 +2240,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>805 Broadway St, Suite 900, VANCOUVER, WA, 98660 US</v>
-    <v>24.65</v>
+    <v>23.635000000000002</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45070.999010520311</v>
+    <v>45072.998149166408</v>
     <v>0</v>
-    <v>24.18</v>
-    <v>9780610697</v>
+    <v>23.09</v>
+    <v>9446678000</v>
     <v>ZoomInfo Technologies Inc</v>
     <v>ZoomInfo Technologies Inc</v>
-    <v>24.44</v>
-    <v>96.71</v>
-    <v>24.74</v>
-    <v>24.31</v>
-    <v>24.59</v>
+    <v>23.1</v>
+    <v>91.777100000000004</v>
+    <v>23.07</v>
+    <v>23.48</v>
+    <v>23.64</v>
     <v>402328700</v>
     <v>ZI</v>
     <v>ZoomInfo Technologies Inc (XNAS:ZI)</v>
-    <v>3388349</v>
-    <v>4881585</v>
+    <v>3250019</v>
+    <v>4909270</v>
     <v>2019</v>
   </rv>
   <rv s="2">
@@ -2423,9 +2423,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2846,10 +2846,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3409,15 +3409,15 @@
       </c>
       <c r="M16" s="25">
         <f>N101/F3</f>
-        <v>8.9076600154826959</v>
+        <v>8.6035318761384332</v>
       </c>
       <c r="N16" s="25">
         <f>N101/F28</f>
-        <v>154.75649837025315</v>
+        <v>149.47275316455696</v>
       </c>
       <c r="O16" s="26">
         <f>N101/F106</f>
-        <v>25.201264357124451</v>
+        <v>24.340834836382374</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="N95" s="57" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
-        <v>1.865</v>
+        <v>1.887</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="N97" s="52">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>0.12123825000000001</v>
+        <v>0.12218535000000001</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="N100" s="50">
         <f>N99/N103</f>
-        <v>0.1184279357498194</v>
+        <v>0.1221031063572979</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="N101" s="41" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>9780610697</v>
+        <v>9446678000</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="N102" s="50">
         <f>N101/N103</f>
-        <v>0.88157206425018064</v>
+        <v>0.87789689364270207</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5313,7 +5313,7 @@
       </c>
       <c r="N103" s="54">
         <f>N99+N101</f>
-        <v>11094510697</v>
+        <v>10760578000</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="N105" s="30">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>0.10827364544937855</v>
+        <v>0.10870277140996101</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5438,7 +5438,7 @@
       <c r="J107" s="31"/>
       <c r="K107" s="34">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>12108107230.564167</v>
+        <v>12046031590.073092</v>
       </c>
       <c r="L107" s="35" t="s">
         <v>148</v>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="K108" s="34">
         <f>K107+K106</f>
-        <v>13091801112.106663</v>
+        <v>13029725471.615587</v>
       </c>
       <c r="L108" s="35" t="s">
         <v>143</v>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="N108" s="39">
         <f>N105</f>
-        <v>0.10827364544937855</v>
+        <v>0.10870277140996101</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="H110" s="41">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>9749695369.801506</v>
+        <v>9695565156.1135597</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="H113" s="41">
         <f>H110+H111-H112</f>
-        <v>8981495369.801506</v>
+        <v>8927365156.1135597</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="H115" s="59">
         <f>H113/H114</f>
-        <v>17.815302372852877</v>
+        <v>17.707932042562408</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="H116" s="58" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>24.31</v>
+        <v>23.48</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="H117" s="45">
         <f>H115/H116-1</f>
-        <v>-0.26716156425944559</v>
+        <v>-0.24582912936275947</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/ZoomInfo.xlsx
+++ b/Technology/Software/ZoomInfo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D791ED3-F9FA-FB48-971E-3CA172E84106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DD4BA7-5951-E34A-94BC-764A779A25EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2228,11 +2228,9 @@
     <v>Powered by Refinitiv</v>
     <v>51.86</v>
     <v>20.329999999999998</v>
-    <v>1.887</v>
-    <v>0.41</v>
-    <v>1.7772E-2</v>
-    <v>0.16</v>
-    <v>6.8139999999999997E-3</v>
+    <v>1.899</v>
+    <v>0.3</v>
+    <v>1.2516000000000001E-2</v>
     <v>USD</v>
     <v>ZoomInfo Technologies Inc., through its subsidiaries, provides a go-to-market intelligence and engagement platform for sales and marketing teams. The Company’s cloud-based platform delivers intelligence and analytics to provide sales, marketing, operations, and recruiting professionals' information and insights on the organizations and professionals they target. It delivers an artificial intelligence (AI) and machine learning (ML) powered engine that gathers data from millions of sources and standardizes, matches to entities, verifies, cleans, and applies the processed data to companies and people at scale. It aggregates and extracts distinct types of data, such as revenue, locations, technologies, keywords, contact information, including email addresses, titles, and phone numbers, and many others, from various public and proprietary sources. The Company serves various industry verticals, including software, business services, manufacturing, telecommunications, real estate and others.</v>
     <v>3540</v>
@@ -2240,25 +2238,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>805 Broadway St, Suite 900, VANCOUVER, WA, 98660 US</v>
-    <v>23.635000000000002</v>
+    <v>24.48</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.998149166408</v>
+    <v>45099.998464397657</v>
     <v>0</v>
-    <v>23.09</v>
-    <v>9446678000</v>
+    <v>23.5</v>
+    <v>9764517549</v>
     <v>ZoomInfo Technologies Inc</v>
     <v>ZoomInfo Technologies Inc</v>
-    <v>23.1</v>
-    <v>91.777100000000004</v>
-    <v>23.07</v>
-    <v>23.48</v>
-    <v>23.64</v>
+    <v>23.6</v>
+    <v>96.550899999999999</v>
+    <v>23.97</v>
+    <v>24.27</v>
+    <v>24.25</v>
     <v>402328700</v>
     <v>ZI</v>
     <v>ZoomInfo Technologies Inc (XNAS:ZI)</v>
-    <v>3250019</v>
-    <v>4909270</v>
+    <v>25</v>
+    <v>7482619</v>
     <v>2019</v>
   </rv>
   <rv s="2">
@@ -2290,8 +2288,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2329,7 +2325,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2347,9 +2343,7 @@
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2416,8 +2410,6 @@
       <v>9</v>
       <v>4</v>
       <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
       <v>at close</v>
@@ -2426,8 +2418,6 @@
       <v>Source: Nasdaq</v>
       <v>GMT</v>
       <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2473,8 +2463,6 @@
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
     <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2483,8 +2471,6 @@
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
     <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2849,7 +2835,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="E86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I99" sqref="I99"/>
+      <selection pane="bottomRight" activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3409,15 +3395,15 @@
       </c>
       <c r="M16" s="25">
         <f>N101/F3</f>
-        <v>8.6035318761384332</v>
+        <v>8.8930032322404369</v>
       </c>
       <c r="N16" s="25">
         <f>N101/F28</f>
-        <v>149.47275316455696</v>
+        <v>154.50185995253165</v>
       </c>
       <c r="O16" s="26">
         <f>N101/F106</f>
-        <v>24.340834836382374</v>
+        <v>25.15979785879928</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5101,7 +5087,7 @@
       </c>
       <c r="N95" s="57" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
-        <v>1.887</v>
+        <v>1.899</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5154,7 +5140,7 @@
       </c>
       <c r="N97" s="52">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>0.12218535000000001</v>
+        <v>0.12270195</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5232,7 +5218,7 @@
       </c>
       <c r="N100" s="50">
         <f>N99/N103</f>
-        <v>0.1221031063572979</v>
+        <v>0.1185999709966339</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5259,7 +5245,7 @@
       </c>
       <c r="N101" s="41" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>9446678000</v>
+        <v>9764517549</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5286,7 +5272,7 @@
       </c>
       <c r="N102" s="50">
         <f>N101/N103</f>
-        <v>0.87789689364270207</v>
+        <v>0.88140002900336611</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5313,7 +5299,7 @@
       </c>
       <c r="N103" s="54">
         <f>N99+N101</f>
-        <v>10760578000</v>
+        <v>11078417549</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5372,7 +5358,7 @@
       </c>
       <c r="N105" s="30">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>0.10870277140996101</v>
+        <v>0.10954491753985396</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5438,7 +5424,7 @@
       <c r="J107" s="31"/>
       <c r="K107" s="34">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>12046031590.073092</v>
+        <v>11926041894.898733</v>
       </c>
       <c r="L107" s="35" t="s">
         <v>148</v>
@@ -5469,7 +5455,7 @@
       </c>
       <c r="K108" s="34">
         <f>K107+K106</f>
-        <v>13029725471.615587</v>
+        <v>12909735776.441229</v>
       </c>
       <c r="L108" s="35" t="s">
         <v>143</v>
@@ -5479,7 +5465,7 @@
       </c>
       <c r="N108" s="39">
         <f>N105</f>
-        <v>0.10870277140996101</v>
+        <v>0.10954491753985396</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5494,7 +5480,7 @@
       </c>
       <c r="H110" s="41">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>9695565156.1135597</v>
+        <v>9590952465.4184361</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5521,7 +5507,7 @@
       </c>
       <c r="H113" s="41">
         <f>H110+H111-H112</f>
-        <v>8927365156.1135597</v>
+        <v>8822752465.4184361</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5539,7 +5525,7 @@
       </c>
       <c r="H115" s="59">
         <f>H113/H114</f>
-        <v>17.707932042562408</v>
+        <v>17.500426873318798</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5548,7 +5534,7 @@
       </c>
       <c r="H116" s="58" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>23.48</v>
+        <v>24.27</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5557,7 +5543,7 @@
       </c>
       <c r="H117" s="45">
         <f>H115/H116-1</f>
-        <v>-0.24582912936275947</v>
+        <v>-0.2789276113177257</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/ZoomInfo.xlsx
+++ b/Technology/Software/ZoomInfo.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DD4BA7-5951-E34A-94BC-764A779A25EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9AD98C-661E-024B-A3EB-E2B41DC7647C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -390,9 +390,6 @@
     <t>CAPEX as % of Revenue</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>3yr Rev Growth</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -549,19 +543,51 @@
     <t>Buy/Sell</t>
   </si>
   <si>
-    <t>Shares (5% dilution)</t>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Shares (No dilution)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -830,59 +856,15 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -893,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -934,13 +916,7 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -949,85 +925,91 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1080,7 +1062,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>ZI</a:t>
+              <a:t>ZoomInfo</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1118,10 +1100,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.5919817202194392E-2"/>
-          <c:y val="0.12741394149859703"/>
-          <c:w val="0.89131849314708167"/>
-          <c:h val="0.69925403313205736"/>
+          <c:x val="8.4580968280467447E-2"/>
+          <c:y val="0.16646701873836514"/>
+          <c:w val="0.84596994991652741"/>
+          <c:h val="0.61109230594553743"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1175,6 +1157,30 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$F$3</c:f>
@@ -1201,7 +1207,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A7AC-D847-B544-D3A3BE334DB3}"/>
+              <c16:uniqueId val="{00000000-4F76-314F-B4C0-936F615AB2DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1210,11 +1216,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1252,33 +1258,57 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$F$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>44000000</c:v>
+                  <c:v>-28600000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98400000</c:v>
+                  <c:v>-46200000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115700000</c:v>
+                  <c:v>-9100000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>236100000</c:v>
+                  <c:v>116800000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>330000000</c:v>
+                  <c:v>63200000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A7AC-D847-B544-D3A3BE334DB3}"/>
+              <c16:uniqueId val="{00000001-4F76-314F-B4C0-936F615AB2DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1287,11 +1317,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1329,9 +1359,33 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$F$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$F$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1355,7 +1409,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A7AC-D847-B544-D3A3BE334DB3}"/>
+              <c16:uniqueId val="{00000002-4F76-314F-B4C0-936F615AB2DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1369,11 +1423,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="850788048"/>
-        <c:axId val="850789776"/>
+        <c:axId val="79387104"/>
+        <c:axId val="79389104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="850788048"/>
+        <c:axId val="79387104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,7 +1455,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1413,7 +1467,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="850789776"/>
+        <c:crossAx val="79389104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1421,9 +1475,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="850789776"/>
+        <c:axId val="79389104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1469,7 +1524,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="850788048"/>
+        <c:crossAx val="79387104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1487,10 +1542,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35087902419171041"/>
-          <c:y val="0.90049209431424393"/>
-          <c:w val="0.30625976842608993"/>
-          <c:h val="5.2982921097411637E-2"/>
+          <c:x val="0.3562294112234301"/>
+          <c:y val="0.89025408777471327"/>
+          <c:w val="0.31692337623072575"/>
+          <c:h val="6.9222479231075842E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2070,22 +2125,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>35277</xdr:colOff>
+      <xdr:colOff>31749</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>11288</xdr:rowOff>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1566334</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>28221</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9134F90-D2DE-2044-00EE-C5D23A750007}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC965C73-3010-753F-41D6-56367617B506}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2104,6 +2159,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2832,10 +2941,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H100" sqref="H100"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2887,28 +2996,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -2946,27 +3055,27 @@
         <v>1887000000</v>
       </c>
       <c r="J3" s="22">
-        <v>2307000000</v>
+        <v>2223000000</v>
       </c>
       <c r="K3" s="22">
-        <v>2780000000</v>
-      </c>
-      <c r="L3" s="27" t="s">
+        <v>2668000000</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="N3" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="O3" s="23" t="s">
         <v>108</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -2999,11 +3108,11 @@
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.22257551669316378</v>
+        <v>0.17806041335453093</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.20502817511920246</v>
+        <v>0.20017993702204229</v>
       </c>
       <c r="L4" s="17">
         <f>(F4+E4+D4)/3</f>
@@ -3018,7 +3127,7 @@
         <v>-5.0323664159280597</v>
       </c>
       <c r="O4" s="17">
-        <f>(F105+E105+D105)/3</f>
+        <f>(F106+E106+D106)/3</f>
         <v>1.724397299443144</v>
       </c>
       <c r="S4" s="16"/>
@@ -3079,17 +3188,17 @@
       <c r="F6" s="10">
         <v>909600000</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="N6" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="O6" s="23" t="s">
         <v>112</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="O6" s="23" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3115,16 +3224,16 @@
         <f>F7</f>
         <v>0.82840000000000003</v>
       </c>
-      <c r="M7" s="55">
+      <c r="M7" s="30">
         <f>F21</f>
         <v>0.30049999999999999</v>
       </c>
-      <c r="N7" s="55">
+      <c r="N7" s="30">
         <f>F30</f>
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="O7" s="55">
-        <f>F106/F3</f>
+      <c r="O7" s="30">
+        <f>F107/F3</f>
         <v>0.35346083788706739</v>
       </c>
     </row>
@@ -3150,7 +3259,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3174,17 +3283,17 @@
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
-      <c r="L9" s="27" t="s">
+      <c r="L9" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="N9" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="O9" s="23" t="s">
         <v>98</v>
-      </c>
-      <c r="O9" s="23" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3210,15 +3319,15 @@
         <f>F9</f>
         <v>0.18688524590163935</v>
       </c>
-      <c r="M10" s="55">
+      <c r="M10" s="30">
         <f>F13</f>
         <v>0.45765027322404372</v>
       </c>
-      <c r="N10" s="55">
+      <c r="N10" s="30">
         <f>F80</f>
         <v>0.17513661202185793</v>
       </c>
-      <c r="O10" s="55">
+      <c r="O10" s="30">
         <f>F89</f>
         <v>2.6320582877959926E-2</v>
       </c>
@@ -3262,22 +3371,22 @@
       <c r="F12" s="1">
         <v>502500000</v>
       </c>
-      <c r="L12" s="27" t="s">
+      <c r="L12" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="N12" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="M12" s="23" t="s">
+      <c r="O12" s="23" t="s">
         <v>116</v>
-      </c>
-      <c r="N12" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="O12" s="23" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3305,11 +3414,11 @@
         <f>F28/F72</f>
         <v>2.7819350294920327E-2</v>
       </c>
-      <c r="M13" s="55">
+      <c r="M13" s="30">
         <f>F28/F54</f>
         <v>8.85600582926966E-3</v>
       </c>
-      <c r="N13" s="55">
+      <c r="N13" s="30">
         <f>F22/(F72+F56+F61)</f>
         <v>4.9028083777226207E-2</v>
       </c>
@@ -3357,17 +3466,17 @@
       <c r="F15" s="1">
         <v>733800000</v>
       </c>
-      <c r="L15" s="27" t="s">
+      <c r="L15" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="N15" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="M15" s="23" t="s">
+      <c r="O15" s="23" t="s">
         <v>120</v>
-      </c>
-      <c r="N15" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3393,20 +3502,20 @@
         <f>(F35+E35+D35+C35+B35)/5</f>
         <v>0.30634341979463564</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="36">
         <f>N101/F3</f>
         <v>8.8930032322404369</v>
       </c>
-      <c r="N16" s="25">
+      <c r="N16" s="36">
         <f>N101/F28</f>
         <v>154.50185995253165</v>
       </c>
-      <c r="O16" s="26">
-        <f>N101/F106</f>
+      <c r="O16" s="33">
+        <f>N101/F107</f>
         <v>25.15979785879928</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3426,7 +3535,7 @@
         <v>47600000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3445,11 +3554,20 @@
       <c r="F18" s="1">
         <v>87800000</v>
       </c>
-      <c r="L18" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="L18" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="M18" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3468,14 +3586,41 @@
       <c r="F19" s="10">
         <v>330000000</v>
       </c>
-      <c r="L19" s="28">
+      <c r="G19" s="37">
+        <v>547000000</v>
+      </c>
+      <c r="H19" s="37">
+        <v>645000000</v>
+      </c>
+      <c r="I19" s="37">
+        <v>765000000</v>
+      </c>
+      <c r="J19" s="37">
+        <v>810000000</v>
+      </c>
+      <c r="K19" s="37">
+        <v>967000000</v>
+      </c>
+      <c r="L19" s="26">
         <f>F40-F56-F61</f>
         <v>-768200000</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="32">
+        <f>N101/G3</f>
+        <v>7.6285293351562498</v>
+      </c>
+      <c r="N19" s="32">
+        <f>N101/G28</f>
+        <v>23.432967480201583</v>
+      </c>
+      <c r="O19" s="33">
+        <f>N101/G106</f>
+        <v>19.591728629614767</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3491,11 +3636,31 @@
         <v>1.0406222990492653</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:K20" si="3">(F19/E19)-1</f>
         <v>0.39771283354510811</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="G20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.65757575757575748</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.17915904936014626</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.18604651162790709</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" si="3"/>
+        <v>5.8823529411764719E-2</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.19382716049382709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3514,8 +3679,34 @@
       <c r="F21" s="2">
         <v>0.30049999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="G21" s="38">
+        <f>G19/G3</f>
+        <v>0.42734375000000002</v>
+      </c>
+      <c r="H21" s="38">
+        <f t="shared" ref="H21:K21" si="4">H19/H3</f>
+        <v>0.42322834645669294</v>
+      </c>
+      <c r="I21" s="38">
+        <f t="shared" si="4"/>
+        <v>0.40540540540540543</v>
+      </c>
+      <c r="J21" s="38">
+        <f t="shared" si="4"/>
+        <v>0.36437246963562753</v>
+      </c>
+      <c r="K21" s="38">
+        <f t="shared" si="4"/>
+        <v>0.36244377811094453</v>
+      </c>
+      <c r="N21" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="O21" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3534,8 +3725,16 @@
       <c r="F22" s="10">
         <v>175800000</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="N22" s="34">
+        <f>(-1*F98)/N101</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="35">
+        <f>F107/N101</f>
+        <v>3.974594730896315E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3555,7 +3754,7 @@
         <v>0.16009999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3575,7 +3774,7 @@
         <v>18800000</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3595,7 +3794,7 @@
         <v>194600000</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3615,7 +3814,7 @@
         <v>0.1772</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3635,7 +3834,7 @@
         <v>131400000</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3654,10 +3853,25 @@
       <c r="F28" s="11">
         <v>63200000</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="39">
+        <v>416700000</v>
+      </c>
+      <c r="H28" s="39">
+        <v>489000000</v>
+      </c>
+      <c r="I28" s="39">
+        <v>590000000</v>
+      </c>
+      <c r="J28" s="39">
+        <v>615000000</v>
+      </c>
+      <c r="K28" s="39">
+        <v>640000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -3676,8 +3890,28 @@
         <f>(F28/E28)-1</f>
         <v>-0.45890410958904104</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="G29" s="16">
+        <f t="shared" ref="G29:K29" si="5">(G28/F28)-1</f>
+        <v>5.5933544303797467</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.17350611951043926</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.20654396728016367</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" si="5"/>
+        <v>4.2372881355932313E-2</v>
+      </c>
+      <c r="K29" s="16">
+        <f t="shared" si="5"/>
+        <v>4.0650406504065151E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -3696,8 +3930,28 @@
       <c r="F30" s="2">
         <v>5.7599999999999998E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="G30" s="40">
+        <f>G28/G3</f>
+        <v>0.32554687500000001</v>
+      </c>
+      <c r="H30" s="40">
+        <f t="shared" ref="H30:K30" si="6">H28/H3</f>
+        <v>0.32086614173228345</v>
+      </c>
+      <c r="I30" s="40">
+        <f t="shared" si="6"/>
+        <v>0.31266560678325384</v>
+      </c>
+      <c r="J30" s="40">
+        <f t="shared" si="6"/>
+        <v>0.2766531713900135</v>
+      </c>
+      <c r="K30" s="40">
+        <f t="shared" si="6"/>
+        <v>0.23988005997001499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -3716,8 +3970,25 @@
       <c r="F31" s="12">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="G31" s="41">
+        <v>1.04</v>
+      </c>
+      <c r="H31" s="41">
+        <v>1.22</v>
+      </c>
+      <c r="I31" s="41">
+        <v>1.47</v>
+      </c>
+      <c r="J31" s="41">
+        <f>J28/F33</f>
+        <v>1.5248589611457233</v>
+      </c>
+      <c r="K31" s="41">
+        <f t="shared" ref="K31" si="7">K28/$E$33</f>
+        <v>1.5868450977776634</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -3779,7 +4050,7 @@
     </row>
     <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="20">
@@ -3787,15 +4058,15 @@
         <v>0</v>
       </c>
       <c r="D35" s="20">
-        <f t="shared" ref="D35:F35" si="4">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:F35" si="8">(D34-C34)/C34</f>
         <v>0.21141695343980399</v>
       </c>
       <c r="E35" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.320300145533374</v>
       </c>
       <c r="F35" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3804,19 +4075,19 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -3824,19 +4095,19 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -3864,10 +4135,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D39" s="1">
         <v>30600000</v>
@@ -3924,19 +4195,19 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4064,19 +4335,19 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4084,10 +4355,10 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D50" s="1">
         <v>415700000</v>
@@ -4144,19 +4415,19 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -4404,19 +4675,19 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4444,10 +4715,10 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D68" s="1">
         <v>4000000</v>
@@ -4484,7 +4755,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70" s="1">
         <v>-6000000</v>
@@ -4504,10 +4775,10 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D71" s="1">
         <v>505200000</v>
@@ -4564,19 +4835,19 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -4584,19 +4855,19 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4681,7 +4952,7 @@
     </row>
     <row r="80" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
         <f>B79/B3</f>
@@ -4749,24 +5020,24 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M83" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="N83" s="63"/>
+        <v>92</v>
+      </c>
+      <c r="M83" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="N83" s="68"/>
     </row>
     <row r="84" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4787,10 +5058,10 @@
       <c r="F84" s="1">
         <v>19500000</v>
       </c>
-      <c r="M84" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="N84" s="65"/>
+      <c r="M84" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="N84" s="69"/>
     </row>
     <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4809,12 +5080,12 @@
         <v>78000000</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M85" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="N85" s="48">
+        <v>92</v>
+      </c>
+      <c r="M85" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="N85" s="43">
         <f>F17</f>
         <v>47600000</v>
       </c>
@@ -4836,12 +5107,12 @@
         <v>59300000</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M86" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="N86" s="48">
+        <v>92</v>
+      </c>
+      <c r="M86" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="N86" s="43">
         <f>F56</f>
         <v>10300000</v>
       </c>
@@ -4865,10 +5136,10 @@
       <c r="F87" s="10">
         <v>417000000</v>
       </c>
-      <c r="M87" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="N87" s="48">
+      <c r="M87" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="N87" s="43">
         <f>F61</f>
         <v>1303600000</v>
       </c>
@@ -4892,17 +5163,17 @@
       <c r="F88" s="1">
         <v>-28900000</v>
       </c>
-      <c r="M88" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="N88" s="50">
+      <c r="M88" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="N88" s="45">
         <f>N85/(N86+N87)</f>
         <v>3.6228023441662226E-2</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="15">
         <f>(-1*B88)/B3</f>
@@ -4924,10 +5195,10 @@
         <f>(-1*F88)/F3</f>
         <v>2.6320582877959926E-2</v>
       </c>
-      <c r="M89" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="N89" s="48">
+      <c r="M89" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="N89" s="43">
         <f>F27</f>
         <v>131400000</v>
       </c>
@@ -4951,10 +5222,10 @@
       <c r="F90" s="1">
         <v>-143700000</v>
       </c>
-      <c r="M90" s="47" t="s">
+      <c r="M90" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="N90" s="48">
+      <c r="N90" s="43">
         <f>F25</f>
         <v>194600000</v>
       </c>
@@ -4964,10 +5235,10 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D91" s="1">
         <v>-30600000</v>
@@ -4978,10 +5249,10 @@
       <c r="F91" s="1">
         <v>-139300000</v>
       </c>
-      <c r="M91" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="N91" s="50">
+      <c r="M91" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="N91" s="45">
         <f>N89/N90</f>
         <v>0.67523124357656727</v>
       </c>
@@ -4991,13 +5262,13 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E92" s="1">
         <v>131800000</v>
@@ -5005,10 +5276,10 @@
       <c r="F92" s="1">
         <v>30800000</v>
       </c>
-      <c r="M92" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="N92" s="52">
+      <c r="M92" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="N92" s="45">
         <f>N88*(1-N91)</f>
         <v>1.176573012082761E-2</v>
       </c>
@@ -5018,24 +5289,24 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M93" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="N93" s="65"/>
+        <v>92</v>
+      </c>
+      <c r="M93" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="N93" s="69"/>
     </row>
     <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5056,11 +5327,12 @@
       <c r="F94" s="10">
         <v>-281100000</v>
       </c>
-      <c r="M94" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="N94" s="53">
-        <v>4.095E-2</v>
+      <c r="M94" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="N94" s="46">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5082,10 +5354,10 @@
       <c r="F95" s="1">
         <v>-400000</v>
       </c>
-      <c r="M95" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="N95" s="57" cm="1">
+      <c r="M95" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="N95" s="47" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
         <v>1.899</v>
       </c>
@@ -5095,24 +5367,24 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D96" s="1">
         <v>1023700000</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M96" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="N96" s="53">
+        <v>92</v>
+      </c>
+      <c r="M96" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="N96" s="46">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5121,7 +5393,7 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C97" s="1">
         <v>-11900000</v>
@@ -5130,17 +5402,17 @@
         <v>-332400000</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M97" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="N97" s="52">
+        <v>92</v>
+      </c>
+      <c r="M97" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="N97" s="45">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>0.12270195</v>
+        <v>0.12434712000000001</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5162,10 +5434,10 @@
       <c r="F98" s="1">
         <v>0</v>
       </c>
-      <c r="M98" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="N98" s="65"/>
+      <c r="M98" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="N98" s="69"/>
     </row>
     <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5186,10 +5458,10 @@
       <c r="F99" s="1">
         <v>-25500000</v>
       </c>
-      <c r="M99" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="N99" s="48">
+      <c r="M99" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="N99" s="43">
         <f>N86+N87</f>
         <v>1313900000</v>
       </c>
@@ -5213,10 +5485,10 @@
       <c r="F100" s="10">
         <v>-25900000</v>
       </c>
-      <c r="M100" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="N100" s="50">
+      <c r="M100" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="N100" s="45">
         <f>N99/N103</f>
         <v>0.1185999709966339</v>
       </c>
@@ -5226,24 +5498,24 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M101" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="N101" s="41" cm="1">
+        <v>92</v>
+      </c>
+      <c r="M101" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="N101" s="28" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
         <v>9764517549</v>
       </c>
@@ -5267,10 +5539,10 @@
       <c r="F102" s="10">
         <v>110000000</v>
       </c>
-      <c r="M102" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="N102" s="50">
+      <c r="M102" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="N102" s="45">
         <f>N101/N103</f>
         <v>0.88140002900336611</v>
       </c>
@@ -5294,10 +5566,10 @@
       <c r="F103" s="1">
         <v>314100000</v>
       </c>
-      <c r="M103" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="N103" s="54">
+      <c r="M103" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="N103" s="48">
         <f>N99+N101</f>
         <v>11078417549</v>
       </c>
@@ -5321,236 +5593,266 @@
       <c r="F104" s="11">
         <v>424100000</v>
       </c>
-      <c r="M104" s="64" t="s">
-        <v>144</v>
-      </c>
-      <c r="N104" s="65"/>
+      <c r="M104" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="N104" s="69"/>
     </row>
     <row r="105" spans="1:14" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
+        <v>161</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:E105" si="9">(B22*(1-$N$91))+B77+B88+B81</f>
+        <v>26438848.920863308</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="9"/>
+        <v>75424152.106885925</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="9"/>
+        <v>50548920.863309354</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="9"/>
+        <v>119396300.10277492</v>
+      </c>
+      <c r="F105" s="1">
+        <f>(F22*(1-$N$91))+F77+F88+F81</f>
+        <v>66394347.37923947</v>
+      </c>
+      <c r="G105" s="31">
+        <f>F105*(1+$N$106)</f>
+        <v>79312167.668725207</v>
+      </c>
+      <c r="H105" s="31">
+        <f t="shared" ref="H105:K105" si="10">G105*(1+$N$106)</f>
+        <v>94743305.546503514</v>
+      </c>
+      <c r="I105" s="31">
+        <f t="shared" si="10"/>
+        <v>113176757.23314902</v>
+      </c>
+      <c r="J105" s="31">
+        <f t="shared" si="10"/>
+        <v>135196659.05602196</v>
+      </c>
+      <c r="K105" s="31">
+        <f t="shared" si="10"/>
+        <v>161500798.10341704</v>
+      </c>
+      <c r="L105" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="M105" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="N105" s="50">
+        <f>(N100*N92)+(N102*N97)</f>
+        <v>0.11099497042556943</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
         <v>-0.2142857142857143</v>
       </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
         <v>3.9610389610389607</v>
       </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
         <v>0.80497382198952883</v>
       </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
         <v>0.40717911530094275</v>
       </c>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="M105" s="29" t="s">
+      <c r="G106" s="63">
+        <v>498400000</v>
+      </c>
+      <c r="H106" s="63">
+        <v>594000000</v>
+      </c>
+      <c r="I106" s="63">
+        <v>712000000</v>
+      </c>
+      <c r="J106" s="63">
+        <v>739000000</v>
+      </c>
+      <c r="K106" s="63">
+        <v>876000000</v>
+      </c>
+      <c r="L106" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="M106" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="N106" s="52">
+        <f>(SUM(G4:K4)/5)</f>
+        <v>0.19456204932176133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="B107" s="1">
+        <v>39200000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>30800000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>152800000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>275800000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>388100000</v>
+      </c>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
+      <c r="J107" s="27"/>
+      <c r="K107" s="64">
+        <f>K106*(1+N107)/(N108-N107)</f>
+        <v>10441308317.876015</v>
+      </c>
+      <c r="L107" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="N105" s="30">
-        <f>(N100*N92)+(N102*N97)</f>
-        <v>0.10954491753985396</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>39200000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>30800000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>152800000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>275800000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>388100000</v>
-      </c>
-      <c r="G106" s="56">
-        <f>F106*(1+$N$106)</f>
-        <v>467441113.9040218</v>
-      </c>
-      <c r="H106" s="56">
-        <f t="shared" ref="H106:K106" si="5">G106*(1+$N$106)</f>
-        <v>563002306.02378941</v>
-      </c>
-      <c r="I106" s="56">
-        <f t="shared" si="5"/>
-        <v>678099523.46893346</v>
-      </c>
-      <c r="J106" s="56">
-        <f t="shared" si="5"/>
-        <v>816726608.06004798</v>
-      </c>
-      <c r="K106" s="56">
-        <f t="shared" si="5"/>
-        <v>983693881.54249489</v>
-      </c>
-      <c r="L106" s="31" t="s">
+      <c r="M107" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="M106" s="32" t="s">
+      <c r="N107" s="54">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="G108" s="64">
+        <f t="shared" ref="G108:I108" si="11">G107+G106</f>
+        <v>498400000</v>
+      </c>
+      <c r="H108" s="64">
+        <f t="shared" si="11"/>
+        <v>594000000</v>
+      </c>
+      <c r="I108" s="64">
+        <f t="shared" si="11"/>
+        <v>712000000</v>
+      </c>
+      <c r="J108" s="64">
+        <f>J107+J106</f>
+        <v>739000000</v>
+      </c>
+      <c r="K108" s="64">
+        <f>K107+K106</f>
+        <v>11317308317.876015</v>
+      </c>
+      <c r="L108" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="M108" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="N106" s="33">
-        <f>(SUM(G4:K4)/5)</f>
-        <v>0.20443471760891993</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="31"/>
-      <c r="H107" s="31"/>
-      <c r="I107" s="31"/>
-      <c r="J107" s="31"/>
-      <c r="K107" s="34">
-        <f>K106*(1+N107)/(N108-N107)</f>
-        <v>11926041894.898733</v>
-      </c>
-      <c r="L107" s="35" t="s">
+      <c r="N108" s="52">
+        <f>N105</f>
+        <v>0.11099497042556943</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="G109" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="M107" s="36" t="s">
+      <c r="H109" s="66"/>
+      <c r="K109" s="65"/>
+    </row>
+    <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G110" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="N107" s="37">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G108" s="34">
-        <f t="shared" ref="G108:I108" si="6">G107+G106</f>
-        <v>467441113.9040218</v>
-      </c>
-      <c r="H108" s="34">
-        <f t="shared" si="6"/>
-        <v>563002306.02378941</v>
-      </c>
-      <c r="I108" s="34">
-        <f t="shared" si="6"/>
-        <v>678099523.46893346</v>
-      </c>
-      <c r="J108" s="34">
-        <f>J107+J106</f>
-        <v>816726608.06004798</v>
-      </c>
-      <c r="K108" s="34">
-        <f>K107+K106</f>
-        <v>12909735776.441229</v>
-      </c>
-      <c r="L108" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="M108" s="38" t="s">
+      <c r="H110" s="28">
+        <f>NPV(N108,G108,H108,I108,J108,K108)</f>
+        <v>8620370077.4608727</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G111" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="N108" s="39">
-        <f>N105</f>
-        <v>0.10954491753985396</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="H109" s="61"/>
-    </row>
-    <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G110" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="H110" s="41">
-        <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>9590952465.4184361</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G111" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="H111" s="41">
+      <c r="H111" s="28">
         <f>F40</f>
         <v>545700000</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G112" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="H112" s="41">
+      <c r="G112" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="H112" s="28">
         <f>N99</f>
         <v>1313900000</v>
       </c>
     </row>
     <row r="113" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G113" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="H113" s="41">
+      <c r="G113" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="H113" s="28">
         <f>H110+H111-H112</f>
-        <v>8822752465.4184361</v>
+        <v>7852170077.4608727</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G114" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="H114" s="42">
-        <f>F34*(1+(5*0.05))</f>
-        <v>504144986.25</v>
+      <c r="G114" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="H114" s="56">
+        <f>F34*(1+(5*0))</f>
+        <v>403315989</v>
       </c>
     </row>
     <row r="115" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G115" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="H115" s="59">
+      <c r="G115" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="H115" s="58">
         <f>H113/H114</f>
-        <v>17.500426873318798</v>
+        <v>19.469027491148815</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G116" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="H116" s="58" cm="1">
+      <c r="G116" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="H116" s="59" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
         <v>24.27</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G117" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="H117" s="45">
+      <c r="G117" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="H117" s="60">
         <f>H115/H116-1</f>
-        <v>-0.2789276113177257</v>
+        <v>-0.19781510131236857</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G118" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="H118" s="46" t="str">
+      <c r="G118" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="H118" s="61" t="str">
         <f>IF(H115&gt;H116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -5577,8 +5879,9 @@
     <hyperlink ref="F36" r:id="rId10" tooltip="https://www.sec.gov/Archives/edgar/data/1794515/000179451523000034/0001794515-23-000034-index.htm" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="F74" r:id="rId11" tooltip="https://www.sec.gov/Archives/edgar/data/1794515/000179451523000034/0001794515-23-000034-index.htm" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="G1" r:id="rId12" display="https://finbox.com/NASDAQGS:ZI/explorer/revenue_proj" xr:uid="{D94C296F-1938-D345-B027-A9BC733BAF5D}"/>
+    <hyperlink ref="L106" r:id="rId13" xr:uid="{70D36059-754E-8744-82B5-62924A1D3987}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId13"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>